--- a/gap_result_2_F.xlsx
+++ b/gap_result_2_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004957169483391396</v>
+        <v>-0.0001665528939825828</v>
       </c>
       <c r="D2">
-        <v>0.9520503440673133</v>
+        <v>0.9840845836082293</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0007054935279541959</v>
+        <v>-0.0007032353417179792</v>
       </c>
       <c r="D3">
-        <v>0.9760485841965498</v>
+        <v>0.9772785359392062</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002558790780446022</v>
+        <v>0.001486936778355707</v>
       </c>
       <c r="D4">
-        <v>0.864131671746563</v>
+        <v>0.9226832991808457</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003207882438377656</v>
+        <v>-0.0003380040183857229</v>
       </c>
       <c r="D5">
-        <v>0.9825572141913856</v>
+        <v>0.981916390731964</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006546268725285381</v>
+        <v>0.001690927964348199</v>
       </c>
       <c r="D6">
-        <v>0.5847855076770179</v>
+        <v>0.8920179088123046</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_F.xlsx
+++ b/gap_result_2_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0001665528939825828</v>
+        <v>-0.0004514036384616338</v>
       </c>
       <c r="D2">
-        <v>0.9840845836082293</v>
+        <v>0.9560950780110247</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0007032353417179792</v>
+        <v>-0.0005775369000181052</v>
       </c>
       <c r="D3">
-        <v>0.9772785359392062</v>
+        <v>0.9796469855732229</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001486936778355707</v>
+        <v>0.002390556267512573</v>
       </c>
       <c r="D4">
-        <v>0.9226832991808457</v>
+        <v>0.8724335903260327</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003380040183857229</v>
+        <v>-0.0002800766180336492</v>
       </c>
       <c r="D5">
-        <v>0.981916390731964</v>
+        <v>0.9844774651011554</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001690927964348199</v>
+        <v>0.006590325563574445</v>
       </c>
       <c r="D6">
-        <v>0.8920179088123046</v>
+        <v>0.5805259000282454</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_F.xlsx
+++ b/gap_result_2_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004514036384616338</v>
+        <v>-6.960827109568635E-05</v>
       </c>
       <c r="D2">
-        <v>0.9560950780110247</v>
+        <v>0.9933465302914842</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0005775369000181052</v>
+        <v>-0.0006523892534561991</v>
       </c>
       <c r="D3">
-        <v>0.9796469855732229</v>
+        <v>0.9789162285138018</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002390556267512573</v>
+        <v>0.001552848271305002</v>
       </c>
       <c r="D4">
-        <v>0.8724335903260327</v>
+        <v>0.9192494673977221</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0002800766180336492</v>
+        <v>-0.0002837374884133541</v>
       </c>
       <c r="D5">
-        <v>0.9844774651011554</v>
+        <v>0.9848159136497883</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006590325563574445</v>
+        <v>0.001697209686409467</v>
       </c>
       <c r="D6">
-        <v>0.5805259000282454</v>
+        <v>0.8915950013611016</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_F.xlsx
+++ b/gap_result_2_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-6.960827109568635E-05</v>
+        <v>-0.0004977145123868792</v>
       </c>
       <c r="D2">
-        <v>0.9933465302914842</v>
+        <v>0.9525184275981275</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0006523892534561991</v>
+        <v>-0.001185657473528746</v>
       </c>
       <c r="D3">
-        <v>0.9789162285138018</v>
+        <v>0.961744487745861</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001552848271305002</v>
+        <v>0.00123127370286058</v>
       </c>
       <c r="D4">
-        <v>0.9192494673977221</v>
+        <v>0.9360179665334717</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0002837374884133541</v>
+        <v>-0.0007697732531722866</v>
       </c>
       <c r="D5">
-        <v>0.9848159136497883</v>
+        <v>0.9588776703114229</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001697209686409467</v>
+        <v>0.001667962215713475</v>
       </c>
       <c r="D6">
-        <v>0.8915950013611016</v>
+        <v>0.8935957778418779</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_2_F.xlsx
+++ b/gap_result_2_F.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
